--- a/va_facility_data_2025-02-20/Winsted VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Winsted%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Winsted VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Winsted%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Refd775a2a88d4611b3379e060f7c6516"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R486ba8cb1eb54447b30e71ee104e69de"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R730cf8ae92dc4d3ea3dbb5577a25ed58"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R2d14bd14790c44fd9e091e8d2f888b7c"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R118d17d10ea84e8fb86a9b4a9f380b9a"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re9f3f5889bdf4fc3ba65397168614af2"/>
   </x:sheets>
 </x:workbook>
 </file>
